--- a/biology/Biologie cellulaire et moléculaire/Micro-ARN_145/Micro-ARN_145.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Micro-ARN_145/Micro-ARN_145.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le micro-ARN 145 (miR 145 dans la terminologie anglophone) est un micro-ARN intervenant dans le fonctionnement des cellules du muscle lisse vasculaire. Il semble fonctionner de manière associée au micro-ARN 143.
 </t>
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son gène est situé sur le chromosome 5 e fait environ 1.7 Kba[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son gène est situé sur le chromosome 5 e fait environ 1.7 Kba.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa cible serait la transcription du KLF4 (Kruppel-like factor 4), de la myocardine et du Elk-1. Sa propre transcription serait régulé par le serum response factor (SRF) et le Nkx2–5 (cardiac NK-2 transcription factor)[4]. 
-Il s'agit du micro-ARN le plus abondant dans les cellules musculaires vasculaires[5].
-Avec le miR-143, il permet la transformation de certaines cellules souches en cellules musculaire lisse et empêcherait la prolifération de ces dernières[4]. 
-Son expression est diminuée lors d'une lésion de l'intima vasculaire et sa réactivation permettrait de limiter la prolifération cellulaire, conséquence de cette lésion[5].
-Sur un modèle animal avec sur-expression de cette molécule, elle pourrait ainsi limiter l'athérome et en modifier sa structure[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa cible serait la transcription du KLF4 (Kruppel-like factor 4), de la myocardine et du Elk-1. Sa propre transcription serait régulé par le serum response factor (SRF) et le Nkx2–5 (cardiac NK-2 transcription factor). 
+Il s'agit du micro-ARN le plus abondant dans les cellules musculaires vasculaires.
+Avec le miR-143, il permet la transformation de certaines cellules souches en cellules musculaire lisse et empêcherait la prolifération de ces dernières. 
+Son expression est diminuée lors d'une lésion de l'intima vasculaire et sa réactivation permettrait de limiter la prolifération cellulaire, conséquence de cette lésion.
+Sur un modèle animal avec sur-expression de cette molécule, elle pourrait ainsi limiter l'athérome et en modifier sa structure.
 </t>
         </is>
       </c>
